--- a/配置映射表.xlsx
+++ b/配置映射表.xlsx
@@ -174,7 +174,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +188,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="54"/>
-      <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -724,137 +717,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,16 +866,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1419,7 +1409,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1503,26 +1493,26 @@
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1530,26 +1520,26 @@
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1557,30 +1547,30 @@
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1588,26 +1578,26 @@
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1615,30 +1605,30 @@
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="9" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>43</v>
       </c>
     </row>

--- a/配置映射表.xlsx
+++ b/配置映射表.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="74">
   <si>
     <t>银行</t>
   </si>
@@ -162,6 +162,96 @@
   </si>
   <si>
     <t>摘要[ Reference ]</t>
+  </si>
+  <si>
+    <t>广发银行股份有限公司高新郑支行</t>
+  </si>
+  <si>
+    <t>淇县农村信用合作联社桥盟信用社</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>上海浦东发展银行股份有限公司郑州分行</t>
+  </si>
+  <si>
+    <t>兴业银行股份有限公司郑州普罗旺世支行</t>
+  </si>
+  <si>
+    <t>浙商银行股份有限公司郑州分行营业部</t>
+  </si>
+  <si>
+    <t>中国工商银行股份有限公司淇县支行2901</t>
+  </si>
+  <si>
+    <t>中国工商银行股份有限公司淇县支行3773</t>
+  </si>
+  <si>
+    <t>中国光大银行股份有限公司郑州未来路支行</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 摘要</t>
+  </si>
+  <si>
+    <t>中国光大银行郑州如意西路支行</t>
+  </si>
+  <si>
+    <t>中国建设银行股份有限公司淇县支行</t>
+  </si>
+  <si>
+    <t>贷方发生额（收入）</t>
+  </si>
+  <si>
+    <t>借方发生额（支取）</t>
+  </si>
+  <si>
+    <t>中国农业银行股份有限公司鹤壁市分行淇县支行营业部</t>
+  </si>
+  <si>
+    <t>收入金额</t>
+  </si>
+  <si>
+    <t>支出金额</t>
+  </si>
+  <si>
+    <t>中国银行股份有限公司鹤壁分行营业部7424</t>
+  </si>
+  <si>
+    <t>中国银行股份有限公司鹤壁分行营业部7990</t>
+  </si>
+  <si>
+    <t>中国银行股份有限公司淇县支行2145</t>
+  </si>
+  <si>
+    <t>中国银行鹤壁分行营业部</t>
+  </si>
+  <si>
+    <t>中国邮政储蓄银行股份有限公司淇县城北支行</t>
+  </si>
+  <si>
+    <t>中信银行股份有限公司郑州商鼎路支行</t>
+  </si>
+  <si>
+    <t>对方账户名称</t>
+  </si>
+  <si>
+    <t>中原银行股份有限公司淇县支行</t>
+  </si>
+  <si>
+    <t>交易金额</t>
+  </si>
+  <si>
+    <t>收支状况</t>
+  </si>
+  <si>
+    <t>附言</t>
+  </si>
+  <si>
+    <t>淇县农村信用合作联社营业部</t>
+  </si>
+  <si>
+    <t>交易类型</t>
   </si>
 </sst>
 </file>
@@ -190,16 +280,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="54"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -546,7 +638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -594,6 +686,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -723,7 +828,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,34 +840,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -866,13 +971,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1406,22 +1516,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="35.0530973451327" customWidth="1"/>
+    <col min="1" max="1" width="37.7787610619469" customWidth="1"/>
     <col min="2" max="2" width="28.7433628318584" customWidth="1"/>
     <col min="3" max="3" width="9.64601769911504" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="9.99115044247788" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="14.6637168141593" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="11.8407079646018" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="13.646017699115" customWidth="1"/>
-    <col min="8" max="8" width="14.0973451327434" customWidth="1"/>
+    <col min="8" max="8" width="14.1061946902655" customWidth="1"/>
     <col min="9" max="9" width="15.2389380530973" customWidth="1"/>
     <col min="10" max="10" width="12.646017699115" customWidth="1"/>
     <col min="11" max="11" width="19.3805309734513" customWidth="1"/>
@@ -1493,26 +1603,26 @@
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1520,26 +1630,26 @@
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1547,30 +1657,30 @@
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1578,13 +1688,13 @@
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
@@ -1594,10 +1704,10 @@
       <c r="I6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1605,32 +1715,647 @@
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
